--- a/assets/disciplinas/LOB1049.xlsx
+++ b/assets/disciplinas/LOB1049.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer aos alunos os conceitos básicos de Estatística Multivariada assim como sua aplicação nos estudos de fenômenos onde vários componentes se comportam de forma correlacionada.</t>
+    <t>4894221 - Mariana Pereira de Melo</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>4894221 - Mariana Pereira de Melo</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Probabilidade: Vetor de variáveis aleatórias, Distribuição conjunta/marginal, Esperança e variância condicional/marginal. Estatística: Regressão Logística simples, Teste Qui-Quadrado, Testes de normalidade, Testes não-paramétricos. Técnicas Multivariadas: Gráficos multivariados, Regressão Linear Múltipla, Regressão Logística Múltipla, Análise de Variância Múltipla; Análise de agrupamento; Análise de componentes principais; Análise fatorial; Análise discriminante e Análise de correspondência</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Probabilidade: Vetor de variáveis aleatórias, Distribuição conjunta/marginal, Esperança e Variância condicional/marginal.Estatística: Regressão Logística simples (coeficiente de associação, sensitividade e especificidade, risco relativo, razão de chances), Teste Qui-Quadrado (testes de aderência, homogeneidade e independência), Teste de normalidade (Shapiro-Wilk, Teste de Kolmogorov-Smirnov), Testes não-paramétricos para amostras pareadas e independentes.Técnicas Multivariadas: Gráficos multivariados, Regressão Linear Múltipla, Regressão Logística Múltipla, Análise de Variância Múltipla; Análise de agrupamento; Análise de componentes principais; Análise fatorial; Análise discriminante e Análise de correspondência</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: N = (N1+...+Nn)/n</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>NF≥ 5,0.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>G.C. Runger, D. Montgomery. Estatística aplicada e probabilidade para engenheiros. São Paulo: Ed. LTC, 2009. D. C. Montgomery, E. A. Peck, G. G. Vining, Introduction to Linear Regression Analysis, 4th ed., Hoboken: John Wiley, 2006.W. J. Conover, Practical Nonparametric Statistics, 3rd ed., New York: John Wiley d Sons, 1999.R. A. Johnson, D. W. Wichern, Applied Multivariate Statistical Analysis, 6th ed., New Jersey: Prentice Hall, 2007.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOB1049.xlsx
+++ b/assets/disciplinas/LOB1049.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer aos alunos os conceitos básicos de Estatística Multivariada assim como sua aplicação nos estudos de fenômenos onde vários componentes se comportam de forma correlacionada.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>4894221 - Mariana Pereira de Melo</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Probabilidade: Vetor de variáveis aleatórias, Distribuição conjunta/marginal, Esperança e variância condicional/marginal. Estatística: Regressão Logística simples, Teste Qui-Quadrado, Testes de normalidade, Testes não-paramétricos. Técnicas Multivariadas: Gráficos multivariados, Regressão Linear Múltipla, Regressão Logística Múltipla, Análise de Variância Múltipla; Análise de agrupamento; Análise de componentes principais; Análise fatorial; Análise discriminante e Análise de correspondência</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Probabilidade: Vetor de variáveis aleatórias, Distribuição conjunta/marginal, Esperança e Variância condicional/marginal.Estatística: Regressão Logística simples (coeficiente de associação, sensitividade e especificidade, risco relativo, razão de chances), Teste Qui-Quadrado (testes de aderência, homogeneidade e independência), Teste de normalidade (Shapiro-Wilk, Teste de Kolmogorov-Smirnov), Testes não-paramétricos para amostras pareadas e independentes.Técnicas Multivariadas: Gráficos multivariados, Regressão Linear Múltipla, Regressão Logística Múltipla, Análise de Variância Múltipla; Análise de agrupamento; Análise de componentes principais; Análise fatorial; Análise discriminante e Análise de correspondência</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +106,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: N = (N1+...+Nn)/n</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: N = (N1+...+Nn)/n</t>
+    <t>NF≥ 5,0.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>NF≥ 5,0.</t>
+    <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
+    <t>G.C. Runger, D. Montgomery. Estatística aplicada e probabilidade para engenheiros. São Paulo: Ed. LTC, 2009. D. C. Montgomery, E. A. Peck, G. G. Vining, Introduction to Linear Regression Analysis, 4th ed., Hoboken: John Wiley, 2006.W. J. Conover, Practical Nonparametric Statistics, 3rd ed., New York: John Wiley d Sons, 1999.R. A. Johnson, D. W. Wichern, Applied Multivariate Statistical Analysis, 6th ed., New Jersey: Prentice Hall, 2007.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +487,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,98 +612,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
